--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>YES</t>
   </si>
@@ -46,6 +46,39 @@
   </si>
   <si>
     <t>sd]d</t>
+  </si>
+  <si>
+    <t>text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>bl4</t>
+  </si>
+  <si>
+    <t>bo5</t>
+  </si>
+  <si>
+    <t>tptpt6</t>
+  </si>
+  <si>
+    <t>sda7</t>
+  </si>
+  <si>
+    <t>hj9</t>
+  </si>
+  <si>
+    <t>yty9</t>
+  </si>
+  <si>
+    <t>qwer10</t>
   </si>
 </sst>
 </file>
@@ -384,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -402,8 +435,11 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="AF1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -416,8 +452,14 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="AF2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -427,8 +469,11 @@
       <c r="F3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="AF3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -438,10 +483,41 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="AF4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,71 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>rade]tt</t>
-  </si>
-  <si>
-    <t>trt]retre</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>bla]asd</t>
-  </si>
-  <si>
-    <t>[asd]dd</t>
-  </si>
-  <si>
-    <t>[]trt]]</t>
-  </si>
-  <si>
-    <t>aasd</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>sd]d</t>
-  </si>
-  <si>
-    <t>text1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> t2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>bl4</t>
-  </si>
-  <si>
-    <t>bo5</t>
-  </si>
-  <si>
     <t>tptpt6</t>
   </si>
   <si>
@@ -79,13 +37,41 @@
   </si>
   <si>
     <t>qwer10</t>
+  </si>
+  <si>
+    <t>http://www.mytextarea.com/</t>
+  </si>
+  <si>
+    <t>NO 1</t>
+  </si>
+  <si>
+    <t>YES 1</t>
+  </si>
+  <si>
+    <t>YES 2</t>
+  </si>
+  <si>
+    <t>NO 2</t>
+  </si>
+  <si>
+    <t>NO 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@[John]_x000D_
+_x000D_
+Noticing this was a February 15th inception date for this opportunity, could you let us know whether we have received a submission for this lead, and if yes, we have quoted?_x000D_
+_x000D_
+FYI </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +79,301 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,15 +381,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1 2" xfId="21"/>
+    <cellStyle name="20% - Accent2 2" xfId="25"/>
+    <cellStyle name="20% - Accent3 2" xfId="29"/>
+    <cellStyle name="20% - Accent4 2" xfId="33"/>
+    <cellStyle name="20% - Accent5 2" xfId="37"/>
+    <cellStyle name="20% - Accent6 2" xfId="41"/>
+    <cellStyle name="40% - Accent1 2" xfId="22"/>
+    <cellStyle name="40% - Accent2 2" xfId="26"/>
+    <cellStyle name="40% - Accent3 2" xfId="30"/>
+    <cellStyle name="40% - Accent4 2" xfId="34"/>
+    <cellStyle name="40% - Accent5 2" xfId="38"/>
+    <cellStyle name="40% - Accent6 2" xfId="42"/>
+    <cellStyle name="60% - Accent1 2" xfId="23"/>
+    <cellStyle name="60% - Accent2 2" xfId="27"/>
+    <cellStyle name="60% - Accent3 2" xfId="31"/>
+    <cellStyle name="60% - Accent4 2" xfId="35"/>
+    <cellStyle name="60% - Accent5 2" xfId="39"/>
+    <cellStyle name="60% - Accent6 2" xfId="43"/>
+    <cellStyle name="Accent1 2" xfId="20"/>
+    <cellStyle name="Accent2 2" xfId="24"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="32"/>
+    <cellStyle name="Accent5 2" xfId="36"/>
+    <cellStyle name="Accent6 2" xfId="40"/>
+    <cellStyle name="Bad 2" xfId="9"/>
+    <cellStyle name="Calculation 2" xfId="13"/>
+    <cellStyle name="Check Cell 2" xfId="15"/>
+    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Explanatory Text 2" xfId="18"/>
+    <cellStyle name="Good 2" xfId="8"/>
+    <cellStyle name="Heading 1 2" xfId="4"/>
+    <cellStyle name="Heading 2 2" xfId="5"/>
+    <cellStyle name="Heading 3 2" xfId="6"/>
+    <cellStyle name="Heading 4 2" xfId="7"/>
+    <cellStyle name="Input 2" xfId="11"/>
+    <cellStyle name="Linked Cell 2" xfId="14"/>
+    <cellStyle name="Neutral 2" xfId="10"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Note 2" xfId="17"/>
+    <cellStyle name="Output 2" xfId="12"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="19"/>
+    <cellStyle name="Warning Text 2" xfId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -417,107 +882,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="AA1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="27:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="27:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AH2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="27:34" x14ac:dyDescent="0.3">
+      <c r="AA3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="27:34" x14ac:dyDescent="0.3">
+      <c r="AA4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="27:34" x14ac:dyDescent="0.3">
+      <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="27:34" x14ac:dyDescent="0.3">
+      <c r="AA6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="7" spans="27:34" x14ac:dyDescent="0.3">
+      <c r="AA7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="27:34" x14ac:dyDescent="0.35">
+      <c r="AA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="9" spans="27:34" x14ac:dyDescent="0.3">
+      <c r="AA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="27:34" x14ac:dyDescent="0.35">
+      <c r="AA10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AF6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AF7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AF8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AF9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AF10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -527,12 +1011,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -543,7 +1090,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>YES</t>
   </si>
@@ -62,6 +62,9 @@
 Noticing this was a February 15th inception date for this opportunity, could you let us know whether we have received a submission for this lead, and if yes, we have quoted?_x000D_
 _x000D_
 FYI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AA1:AH10"/>
+  <dimension ref="X1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +897,7 @@
     <col min="34" max="34" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="27:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="24:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AA1" t="s">
         <v>7</v>
       </c>
@@ -908,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="27:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="24:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AA2" t="s">
         <v>7</v>
       </c>
@@ -922,7 +925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="27:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="24:34" x14ac:dyDescent="0.3">
       <c r="AA3" t="s">
         <v>7</v>
       </c>
@@ -936,7 +939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="27:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="24:34" x14ac:dyDescent="0.3">
       <c r="AA4" t="s">
         <v>7</v>
       </c>
@@ -950,7 +953,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="27:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="24:34" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>14</v>
+      </c>
       <c r="AA5" t="s">
         <v>7</v>
       </c>
@@ -964,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="27:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="24:34" x14ac:dyDescent="0.3">
       <c r="AA6" t="s">
         <v>7</v>
       </c>
@@ -972,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="27:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="24:34" x14ac:dyDescent="0.3">
       <c r="AA7" t="s">
         <v>7</v>
       </c>
@@ -980,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="27:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="24:34" x14ac:dyDescent="0.35">
       <c r="AA8" t="s">
         <v>7</v>
       </c>
@@ -988,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="27:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="24:34" x14ac:dyDescent="0.3">
       <c r="AA9" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="27:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="24:34" x14ac:dyDescent="0.35">
       <c r="AA10" t="s">
         <v>7</v>
       </c>
@@ -1011,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,51 +1037,6 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -496,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -887,17 +887,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="X1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="24:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="24:34" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA1" t="s">
         <v>7</v>
       </c>
@@ -911,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="24:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="24:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA2" t="s">
         <v>7</v>
       </c>
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="24:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="24:34" x14ac:dyDescent="0.35">
       <c r="AA3" t="s">
         <v>7</v>
       </c>
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="24:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="24:34" x14ac:dyDescent="0.35">
       <c r="AA4" t="s">
         <v>7</v>
       </c>
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="24:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="24:34" x14ac:dyDescent="0.35">
       <c r="X5" t="s">
         <v>14</v>
       </c>
@@ -970,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="24:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="24:34" x14ac:dyDescent="0.35">
       <c r="AA6" t="s">
         <v>7</v>
       </c>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="24:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="24:34" x14ac:dyDescent="0.35">
       <c r="AA7" t="s">
         <v>7</v>
       </c>
@@ -994,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="24:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="24:34" x14ac:dyDescent="0.35">
       <c r="AA9" t="s">
         <v>7</v>
       </c>
@@ -1020,22 +1020,22 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -888,7 +888,7 @@
   <dimension ref="X1:AH10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
